--- a/data.analysis/data/genus.data.trees/Cytronus/Cyrtonus chrom number haploid.xlsx
+++ b/data.analysis/data/genus.data.trees/Cytronus/Cyrtonus chrom number haploid.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katesaenz/Documents/GitHub/coleochroms/data.analysis/data/genus.data.trees/Cytronus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chjelmen\Desktop\Dropbox\gitrepos\coleochroms\data.analysis\data\genus.data.trees\Cytronus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C1B3964-41AD-FB49-BDDC-FEE119D663CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="460" windowWidth="19940" windowHeight="16660" xr2:uid="{F90459FA-F626-C34D-9615-89A1CE2ACC23}"/>
+    <workbookView xWindow="8865" yWindow="465" windowWidth="19935" windowHeight="16665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>species</t>
   </si>
@@ -86,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,40 +442,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C85825A-6A8B-964F-80F8-BD09AE59BAF4}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,7 +494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -503,7 +502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -511,67 +510,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
         <v>13</v>
       </c>
     </row>
